--- a/Infiltracion melipilla.xlsx
+++ b/Infiltracion melipilla.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Btoko\Desktop\UNIVERSIDAD\RELACION SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D30970D-9DE7-4100-A234-01243A80300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D3C8C2-6049-401A-9247-4F03B0F3C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BD2AEA41-3CCA-4FDE-ABA7-AE34BAD2B044}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,21 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Hora lectura</t>
-  </si>
-  <si>
-    <t>Tiempo parcial (min)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Tiemp acumulado (min)</t>
   </si>
   <si>
     <t>Lectura (cm)</t>
-  </si>
-  <si>
-    <t>Enrase (cm)</t>
   </si>
 </sst>
 </file>
@@ -101,10 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,156 +429,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92CA257-E104-4732-AF7E-9F90C42E970A}">
-  <dimension ref="A2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D1E4BE-5001-4AE8-A473-EBFD087E4093}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C11" activeCellId="1" sqref="A1:A8 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F29ED0-DBB9-4F3D-9923-FC6A02CFC7B9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.58958333333333335</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>24.1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>21.7</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.60347222222222219</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>17.7</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>15.9</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>14.3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
